--- a/Documentation/Operator_mul.xlsx
+++ b/Documentation/Operator_mul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\SQLComponents\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2A6B3F8A-7E66-4CB1-AB72-4B207B32736D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{52C84328-3281-4D1D-965F-F8C7B3FA3529}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{DBCEA4FC-0CED-4C39-BF06-DAE0EBFE6284}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="34">
-  <si>
-    <t>SQLVariant operator</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="33">
   <si>
     <t>CHAR</t>
   </si>
@@ -123,17 +120,17 @@
     <t>□</t>
   </si>
   <si>
-    <t>MULTIPLY ( X )</t>
-  </si>
-  <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Operator MULTIPLY (X)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +151,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -284,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -316,6 +321,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -633,7 +639,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection sqref="A1:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,1379 +649,1377 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R21" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
